--- a/xls/test.xlsx
+++ b/xls/test.xlsx
@@ -73,7 +73,7 @@
     <t>款式： 432997-127</t>
   </si>
   <si>
-    <t>設計：以原版低筒網球鞋為靈感, Nike Killshot 2 柔軟麂皮與帶有華美光澤的滑順皮革</t>
+    <t xml:space="preserve">設計：以原版低筒網球鞋為靈感, Nike Killshot 2 柔軟麂皮與帶有華美光澤的滑順皮革,讓造型煥然一新。 </t>
   </si>
 </sst>
 </file>
